--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2849" uniqueCount="90">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -192,6 +192,99 @@
   </si>
   <si>
     <t xml:space="preserve">return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TextDis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TextDisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TextDisplay_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text1:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text2:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightEn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightEnter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">main</t>
   </si>
 </sst>
 </file>
@@ -1668,7 +1761,7 @@
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1691,13 +1784,159 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:10"/>
-    <row r="7" spans="2:10"/>
-    <row r="8" spans="2:10"/>
-    <row r="9" spans="2:10"/>
-    <row r="10" spans="2:10"/>
-    <row r="13" spans="2:10"/>
-    <row r="14" spans="2:10"/>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="15" spans="2:10"/>
     <row r="16" spans="2:10"/>
     <row r="17" spans="4:4"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2849" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8770" uniqueCount="129">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -285,6 +285,123 @@
   </si>
   <si>
     <t xml:space="preserve">main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TextDisplay_1&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SwitchButtonView::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TextDisPlay_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TextDisPlay_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResourceId1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">displayText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AcadEref.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9,A-Z,a-z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9,A-Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9,A-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9,A-Z,a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consola.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9,A-Z,a-z, ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text 1:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text 2:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9,A-Z,a-z,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x00-0x8f,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TextDisPlay 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -~,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TextDisPlay1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TextDisPlay2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TextDisPlay 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!-~,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-Z,a-z,0-9,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ,_</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ,_,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x20-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x20-0x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x20-0x8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x20-0x8F</t>
   </si>
 </sst>
 </file>
@@ -1521,7 +1638,9 @@
       <c r="E4">
         <v>4</v>
       </c>
-      <c r="F4"/>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
@@ -1554,7 +1673,9 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5"/>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
@@ -1585,7 +1706,9 @@
       <c r="E6">
         <v>4</v>
       </c>
-      <c r="F6"/>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -1604,6 +1727,26 @@
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="2:15">
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7"/>
       <c r="K7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1823,16 +1966,16 @@
         <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -1840,16 +1983,16 @@
         <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
         <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="2:10">
@@ -1863,7 +2006,7 @@
         <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="F10" t="s">
         <v>50</v>
@@ -1880,7 +2023,7 @@
         <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="F11" t="s">
         <v>50</v>
@@ -1937,8 +2080,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:10"/>
-    <row r="16" spans="2:10"/>
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="17" spans="4:4"/>
     <row r="18" spans="4:4"/>
     <row r="19" spans="4:4"/>
